--- a/resources/БАЗА ДАННЫХ/forex4you/excel/Number 9.xlsx
+++ b/resources/БАЗА ДАННЫХ/forex4you/excel/Number 9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,34 +503,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.22 10:00</t>
+          <t>2023.11.30 10:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.08853</t>
+          <t>1.09233</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.30 11:18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.09512</t>
+          <t>1.09142</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-65,9</t>
+          <t>9,1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0,0004</t>
+          <t>0,0002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -545,34 +545,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.28 18:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.09158</t>
+          <t>1.10061</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.30 09:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.09507</t>
+          <t>1.09401</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>34,9</t>
+          <t>-66</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,0006</t>
+          <t>0,0004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,34 +587,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.28 19:12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.08857</t>
+          <t>1.09763</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.30 09:33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.09512</t>
+          <t>1.09404</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-65,5</t>
+          <t>35,9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,0012</t>
+          <t>0,0006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -629,34 +629,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.23 07:08</t>
+          <t>2023.11.29 00:32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09154</t>
+          <t>1.10061</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.30 09:33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.09508</t>
+          <t>1.09401</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35,4</t>
+          <t>-66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -666,39 +666,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.21 02:30</t>
+          <t>2023.11.29 10:38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.09575</t>
+          <t>1.09758</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.22 09:44</t>
+          <t>2023.11.30 09:33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.08857</t>
+          <t>1.09404</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-71,8</t>
+          <t>35,4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0,0004</t>
+          <t>0,0002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -713,34 +713,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.21 17:21</t>
+          <t>2023.11.28 09:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.09274</t>
+          <t>1.09357</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.22 09:44</t>
+          <t>2023.11.28 18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.10074</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>41,5</t>
+          <t>-71,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.20 18:30</t>
+          <t>2023.11.28 14:44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.09452</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.21 02:23</t>
+          <t>2023.11.28 18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.09543</t>
+          <t>1.10071</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>41,4</t>
         </is>
       </c>
     </row>
@@ -792,32 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.20 11:00</t>
+          <t>2023.11.28 08:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.09369</t>
+          <t>1.09455</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.20 18:04</t>
+          <t>2023.11.28 08:57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.09463</t>
+          <t>1.09363</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>9,2</t>
         </is>
       </c>
     </row>
@@ -834,27 +834,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.20 05:30</t>
+          <t>2023.11.28 05:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09298</t>
+          <t>1.09548</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.20 10:33</t>
+          <t>2023.11.28 08:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.09391</t>
+          <t>1.09455</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.20 03:30</t>
+          <t>2023.11.27 07:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.09213</t>
+          <t>1.09528</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.20 05:16</t>
+          <t>2023.11.28 03:34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.09304</t>
+          <t>1.09619</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -923,27 +923,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.20 00:00</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.09107</t>
+          <t>1.09158</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.20 03:27</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.09197</t>
+          <t>1.09507</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34,9</t>
         </is>
       </c>
     </row>
@@ -960,39 +960,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.17 20:00</t>
+          <t>2023.11.22 10:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.09035</t>
+          <t>1.08853</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.17 22:48</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.09132</t>
+          <t>1.09512</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>-65,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1007,34 +1007,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.17 17:00</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.09158</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.17 19:35</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.08965</t>
+          <t>1.09507</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>34,9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1044,39 +1044,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.17 16:30</t>
+          <t>2023.11.22 15:04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.08801</t>
+          <t>1.08857</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.17 16:38</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.08892</t>
+          <t>1.09512</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>-65,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0012</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.17 14:30</t>
+          <t>2023.11.23 07:08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.08719</t>
+          <t>1.09154</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.17 15:04</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.08811</t>
+          <t>1.09508</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>35,4</t>
         </is>
       </c>
     </row>
@@ -1133,34 +1133,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.17 11:30</t>
+          <t>2023.11.21 02:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.0867</t>
+          <t>1.09575</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.17 14:14</t>
+          <t>2023.11.22 09:44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.08764</t>
+          <t>1.08857</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>-71,8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,0002</t>
+          <t>0,0004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1170,39 +1170,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.17 10:00</t>
+          <t>2023.11.21 17:21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.08486</t>
+          <t>1.09274</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.17 10:42</t>
+          <t>2023.11.22 09:44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.08579</t>
+          <t>1.08859</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>41,5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,0038</t>
+          <t>0,0002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1212,39 +1212,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.16 03:08</t>
+          <t>2023.11.20 18:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.08402</t>
+          <t>1.09452</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.17 08:41</t>
+          <t>2023.11.21 02:23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.0836</t>
+          <t>1.09543</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>9,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,0004</t>
+          <t>0,0002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1259,67 +1259,529 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.16 16:20</t>
+          <t>2023.11.20 11:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.08873</t>
+          <t>1.09369</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.17 08:41</t>
+          <t>2023.11.20 18:04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.08356</t>
+          <t>1.09463</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-51,7</t>
+          <t>9,4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023.11.20 05:30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.09298</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2023.11.20 10:33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.09391</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>9,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.09213</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2023.11.20 05:16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.09304</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023.11.20 00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.09107</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.09197</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023.11.17 20:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.09035</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2023.11.17 22:48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.09132</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>9,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023.11.17 17:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.08868</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2023.11.17 19:35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.08965</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>9,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023.11.17 16:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.08801</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2023.11.17 16:38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.08892</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023.11.17 14:30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.08719</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2023.11.17 15:04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.08811</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>9,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023.11.17 11:30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.0867</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2023.11.17 14:14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.08764</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0,0002</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023.11.17 10:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.08486</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2023.11.17 10:42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.08579</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>9,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0,0038</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023.11.16 03:08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.08402</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2023.11.17 08:41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0836</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0,0004</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023.11.16 16:20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.08873</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2023.11.17 08:41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.08356</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-51,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>0,0006</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2023.11.16 18:24</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1.08555</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2023.11.17 08:41</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>1.08359</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>19,6</t>
         </is>
